--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1334"/>
+  <dimension ref="A1:G1286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32706,10 +32706,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1240">
@@ -32739,10 +32737,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1241">
@@ -32768,10 +32764,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1242">
@@ -32797,10 +32791,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1243">
@@ -32830,10 +32822,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1244">
@@ -32863,10 +32853,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1245">
@@ -32896,10 +32884,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1246">
@@ -32925,10 +32911,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1247">
@@ -32950,10 +32934,8 @@
       </c>
       <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1248">
@@ -32975,10 +32957,8 @@
       </c>
       <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1249">
@@ -33000,10 +32980,8 @@
       </c>
       <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1250">
@@ -33025,10 +33003,8 @@
       </c>
       <c r="E1250" t="inlineStr"/>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1251">
@@ -33050,10 +33026,8 @@
       </c>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1252">
@@ -33079,10 +33053,8 @@
         </is>
       </c>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
@@ -33104,10 +33076,8 @@
       </c>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1254">
@@ -33129,10 +33099,8 @@
       </c>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1255">
@@ -33150,10 +33118,8 @@
       <c r="D1255" t="inlineStr"/>
       <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -33175,10 +33141,8 @@
       </c>
       <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1257">
@@ -33200,10 +33164,8 @@
       </c>
       <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1258">
@@ -33225,10 +33187,8 @@
       </c>
       <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -33250,10 +33210,8 @@
       </c>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -33275,10 +33233,8 @@
       </c>
       <c r="E1260" t="inlineStr"/>
       <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -33300,34 +33256,40 @@
       </c>
       <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/19</t>
+        </is>
+      </c>
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr"/>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr"/>
@@ -33336,48 +33298,88 @@
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
+        </is>
+      </c>
       <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
+        </is>
+      </c>
       <c r="C1265" t="inlineStr"/>
       <c r="D1265" t="inlineStr"/>
       <c r="E1265" t="inlineStr"/>
       <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
+        </is>
+      </c>
       <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
@@ -33387,69 +33389,69 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr"/>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.26M</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>4.38M</t>
         </is>
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Existing Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr"/>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr">
-        <is>
-          <t>4.060%</t>
-        </is>
-      </c>
+      <c r="D1269" t="inlineStr"/>
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr">
@@ -33461,35 +33463,55 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexAPR</t>
+        </is>
+      </c>
       <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr"/>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1271" t="inlineStr">
         <is>
           <t>3</t>
@@ -33499,12 +33521,12 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr"/>
@@ -33513,33 +33535,25 @@
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D1273" t="inlineStr"/>
       <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr">
         <is>
           <t>3</t>
@@ -33549,26 +33563,18 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D1274" t="inlineStr"/>
       <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
+      <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr">
         <is>
           <t>3</t>
@@ -33578,26 +33584,18 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D1275" t="inlineStr"/>
       <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
+      <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr">
         <is>
           <t>3</t>
@@ -33612,13 +33610,13 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr"/>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -33632,20 +33630,16 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>$21.67T</t>
-        </is>
-      </c>
+      <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr">
@@ -33657,85 +33651,109 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr"/>
       <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr">
-        <is>
-          <t>2.4M</t>
-        </is>
-      </c>
+      <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1278" t="inlineStr"/>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
+        </is>
+      </c>
       <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>-8.5%</t>
-        </is>
-      </c>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1281" t="inlineStr">
         <is>
           <t>3</t>
@@ -33745,22 +33763,30 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>267.5</t>
-        </is>
-      </c>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1282" t="inlineStr">
         <is>
           <t>3</t>
@@ -33770,21 +33796,25 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>841.9</t>
-        </is>
-      </c>
-      <c r="E1283" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr">
         <is>
@@ -33795,20 +33825,16 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr">
-        <is>
-          <t>164.2</t>
-        </is>
-      </c>
+      <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr">
@@ -33820,12 +33846,12 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr"/>
@@ -33834,1226 +33860,22 @@
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr"/>
       <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="D1286" t="inlineStr"/>
       <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
-        </is>
-      </c>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
-        </is>
-      </c>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr">
-        <is>
-          <t>New Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr">
-        <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr">
-        <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr">
-        <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr">
-        <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>0.03M</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr">
-        <is>
-          <t>-1.851M</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr"/>
-      <c r="B1304" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr"/>
-      <c r="B1305" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G1307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr">
-        <is>
-          <t>4.38M</t>
-        </is>
-      </c>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1327" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1327" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1328" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1328" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1329" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1329" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1330" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1330" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1331" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1335"/>
+  <dimension ref="A1:G1295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32693,10 +32693,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1239">
@@ -32722,10 +32720,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1240">
@@ -32751,10 +32747,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1241">
@@ -32784,10 +32778,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1242">
@@ -32817,10 +32809,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1243">
@@ -32850,10 +32840,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1244">
@@ -32879,10 +32867,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1245">
@@ -32904,10 +32890,8 @@
       </c>
       <c r="E1245" t="inlineStr"/>
       <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1246">
@@ -32929,10 +32913,8 @@
       </c>
       <c r="E1246" t="inlineStr"/>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1247">
@@ -32954,10 +32936,8 @@
       </c>
       <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1248">
@@ -32979,10 +32959,8 @@
       </c>
       <c r="E1248" t="inlineStr"/>
       <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1249">
@@ -33004,10 +32982,8 @@
       </c>
       <c r="E1249" t="inlineStr"/>
       <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1250">
@@ -33033,10 +33009,8 @@
         </is>
       </c>
       <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1251">
@@ -33058,10 +33032,8 @@
       </c>
       <c r="E1251" t="inlineStr"/>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1252">
@@ -33083,10 +33055,8 @@
       </c>
       <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
@@ -33104,10 +33074,8 @@
       <c r="D1253" t="inlineStr"/>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1254">
@@ -33129,10 +33097,8 @@
       </c>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1255">
@@ -33154,10 +33120,8 @@
       </c>
       <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1256">
@@ -33179,10 +33143,8 @@
       </c>
       <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1257">
@@ -33204,10 +33166,8 @@
       </c>
       <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1258">
@@ -33229,10 +33189,8 @@
       </c>
       <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -33254,211 +33212,257 @@
       </c>
       <c r="E1259" t="inlineStr"/>
       <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr"/>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1260" t="inlineStr"/>
       <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>0.105%</t>
+        </is>
+      </c>
       <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr"/>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>4.100%</t>
+        </is>
+      </c>
       <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Fed Beige Book</t>
+        </is>
+      </c>
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr"/>
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
+      <c r="A1264" t="inlineStr"/>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Building Permits FinalMAR</t>
+        </is>
+      </c>
       <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>1.459M</t>
+        </is>
+      </c>
       <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A1265" t="inlineStr"/>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr"/>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday April 24 2025</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr"/>
       <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="D1266" t="inlineStr"/>
       <c r="E1266" t="inlineStr"/>
       <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1266" t="inlineStr"/>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr"/>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>4.060%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Chicago Fed National Activity IndexMAR</t>
+        </is>
+      </c>
       <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>Durable Goods Orders Ex Transp MoMMAR</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr"/>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Initial Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr"/>
@@ -33474,26 +33478,18 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D1271" t="inlineStr"/>
       <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr">
         <is>
           <t>3</t>
@@ -33503,24 +33499,24 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr"/>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1272" t="inlineStr">
@@ -33532,26 +33528,18 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D1273" t="inlineStr"/>
       <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
+      <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr">
         <is>
           <t>3</t>
@@ -33561,22 +33549,26 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr"/>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1274" t="inlineStr">
         <is>
           <t>3</t>
@@ -33586,43 +33578,55 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr"/>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>$21.67T</t>
+          <t>4.26M</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>4.38M</t>
+        </is>
+      </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Existing Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1276" t="inlineStr">
         <is>
           <t>2</t>
@@ -33632,83 +33636,95 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>2.4M</t>
-        </is>
-      </c>
+      <c r="D1277" t="inlineStr"/>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexAPR</t>
+        </is>
+      </c>
       <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr"/>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>-8.5%</t>
-        </is>
-      </c>
+      <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr">
@@ -33720,20 +33736,16 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr">
-        <is>
-          <t>267.5</t>
-        </is>
-      </c>
+      <c r="D1281" t="inlineStr"/>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr">
@@ -33745,20 +33757,16 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr">
-        <is>
-          <t>841.9</t>
-        </is>
-      </c>
+      <c r="D1282" t="inlineStr"/>
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr">
@@ -33770,20 +33778,16 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr">
-        <is>
-          <t>164.2</t>
-        </is>
-      </c>
+      <c r="D1283" t="inlineStr"/>
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr">
@@ -33795,33 +33799,37 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Fed Beth Speech</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>4.233%</t>
+        </is>
+      </c>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr"/>
@@ -33830,33 +33838,25 @@
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="D1286" t="inlineStr"/>
       <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr">
         <is>
           <t>2</t>
@@ -33866,53 +33866,41 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr"/>
       <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="D1287" t="inlineStr"/>
       <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr"/>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr"/>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1288" t="inlineStr"/>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1288" t="inlineStr">
@@ -33929,24 +33917,28 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>New Home SalesMAR</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1289" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>0.69M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -33958,94 +33950,106 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAR</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr"/>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1290" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr"/>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>0.515M</t>
-        </is>
-      </c>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr"/>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1292" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr">
-        <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
+      <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr">
@@ -34057,20 +34061,16 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr">
-        <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
+      <c r="D1294" t="inlineStr"/>
       <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
       <c r="G1294" t="inlineStr">
@@ -34082,1003 +34082,15 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr"/>
       <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>0.03M</t>
-        </is>
-      </c>
+      <c r="D1295" t="inlineStr"/>
       <c r="E1295" t="inlineStr"/>
       <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr">
-        <is>
-          <t>-1.851M</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr">
-        <is>
-          <t>-0.063M</t>
-        </is>
-      </c>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr"/>
-      <c r="B1304" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr"/>
-      <c r="B1305" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G1307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr">
-        <is>
-          <t>4.38M</t>
-        </is>
-      </c>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1328" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1328" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1329" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1329" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1330" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1330" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1331" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1331" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1332" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
+      <c r="G1295" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1365"/>
+  <dimension ref="A1:G1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33386,10 +33386,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -33423,10 +33421,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -33456,10 +33452,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1270">
@@ -33489,10 +33483,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1271">
@@ -33526,10 +33518,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1272">
@@ -33563,10 +33553,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -33600,10 +33588,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -33633,10 +33619,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -33662,10 +33646,8 @@
       </c>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -33691,10 +33673,8 @@
       </c>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -33720,10 +33700,8 @@
       </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -33749,10 +33727,8 @@
       </c>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -33778,10 +33754,8 @@
       </c>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -33807,10 +33781,8 @@
       </c>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -33836,10 +33808,8 @@
       </c>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -33869,10 +33839,8 @@
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -33894,10 +33862,8 @@
       </c>
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -33915,10 +33881,8 @@
       <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1285">
@@ -33940,10 +33904,8 @@
       </c>
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -33965,10 +33927,8 @@
       </c>
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -33990,10 +33950,8 @@
       </c>
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -34015,10 +33973,8 @@
       </c>
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -34040,112 +33996,150 @@
       </c>
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
+        </is>
+      </c>
       <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>0.019M</t>
+        </is>
+      </c>
       <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>-0.063M</t>
+        </is>
+      </c>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>2-Year FRN Auction</t>
+        </is>
+      </c>
       <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>0.105%</t>
+        </is>
+      </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>4.100%</t>
+        </is>
+      </c>
       <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1295" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr">
         <is>
           <t>3</t>
@@ -34153,59 +34147,67 @@
       </c>
     </row>
     <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1296" t="inlineStr"/>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits FinalMAR</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
+          <t>1.459M</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1297" t="inlineStr"/>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr"/>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>4.060%</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
+          <t>Thursday April 24 2025</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -34218,43 +34220,59 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>Durable Goods Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr"/>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Chicago Fed National Activity IndexMAR</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
       <c r="G1300" t="inlineStr">
         <is>
           <t>2</t>
@@ -34264,82 +34282,86 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>Durable Goods Orders Ex Transp MoMMAR</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>Initial Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr"/>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>215K</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>218.0K</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr"/>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>1885K</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr"/>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>1888.0K</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
@@ -34351,22 +34373,26 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1304" t="inlineStr">
         <is>
           <t>3</t>
@@ -34376,22 +34402,26 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr"/>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>$21.67T</t>
+          <t>220.75K</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>222.0K</t>
+        </is>
+      </c>
       <c r="G1305" t="inlineStr">
         <is>
           <t>3</t>
@@ -34401,106 +34431,142 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>2.4M</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
+          <t>4.26M</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>4.14M</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>4.18M</t>
+        </is>
+      </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>Existing Home Sales MoMMAR</t>
+        </is>
+      </c>
       <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr"/>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>16Bcf</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Kansas Fed Composite IndexAPR</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr"/>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="G1310" t="inlineStr">
         <is>
           <t>3</t>
@@ -34510,22 +34576,26 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr"/>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1311" t="inlineStr">
         <is>
           <t>3</t>
@@ -34535,18 +34605,18 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>841.9</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr"/>
@@ -34560,18 +34630,18 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>164.2</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr"/>
@@ -34585,126 +34655,114 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Fed Beth Speech</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>6.03%</t>
+        </is>
+      </c>
       <c r="E1314" t="inlineStr"/>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
       <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="D1317" t="inlineStr"/>
       <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1318" t="inlineStr"/>
       <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr">
         <is>
           <t>2</t>
@@ -34714,35 +34772,15 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>New Home SalesMAR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
       <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>0.680M</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
@@ -34752,19 +34790,23 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1320" t="inlineStr"/>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -34776,72 +34818,96 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>0.515M</t>
-        </is>
-      </c>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr"/>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1323" t="inlineStr">
         <is>
           <t>3</t>
@@ -34851,22 +34917,30 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr"/>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="G1324" t="inlineStr">
         <is>
           <t>3</t>
@@ -34876,20 +34950,16 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr">
-        <is>
-          <t>0.03M</t>
-        </is>
-      </c>
+      <c r="D1325" t="inlineStr"/>
       <c r="E1325" t="inlineStr"/>
       <c r="F1325" t="inlineStr"/>
       <c r="G1325" t="inlineStr">
@@ -34901,20 +34971,16 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr">
-        <is>
-          <t>-1.851M</t>
-        </is>
-      </c>
+      <c r="D1326" t="inlineStr"/>
       <c r="E1326" t="inlineStr"/>
       <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr">
@@ -34926,1021 +34992,15 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
       <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
+      <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr"/>
       <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>-0.063M</t>
-        </is>
-      </c>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr"/>
-      <c r="B1334" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr"/>
-      <c r="B1335" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1337" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1337" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1337" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr">
-        <is>
-          <t>218.0K</t>
-        </is>
-      </c>
-      <c r="G1340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr">
-        <is>
-          <t>1885K</t>
-        </is>
-      </c>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr">
-        <is>
-          <t>1888.0K</t>
-        </is>
-      </c>
-      <c r="G1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr">
-        <is>
-          <t>220.75K</t>
-        </is>
-      </c>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1345" t="inlineStr">
-        <is>
-          <t>4.14M</t>
-        </is>
-      </c>
-      <c r="F1345" t="inlineStr">
-        <is>
-          <t>4.18M</t>
-        </is>
-      </c>
-      <c r="G1345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr">
-        <is>
-          <t>16Bcf</t>
-        </is>
-      </c>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="G1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1365"/>
+  <dimension ref="A1:G1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33386,10 +33386,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -33423,10 +33421,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -33456,10 +33452,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1270">
@@ -33489,10 +33483,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1271">
@@ -33526,10 +33518,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1272">
@@ -33563,10 +33553,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -33600,10 +33588,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -33633,10 +33619,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -33662,10 +33646,8 @@
       </c>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -33691,10 +33673,8 @@
       </c>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -33720,10 +33700,8 @@
       </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -33749,10 +33727,8 @@
       </c>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -33778,10 +33754,8 @@
       </c>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -33807,10 +33781,8 @@
       </c>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -33836,10 +33808,8 @@
       </c>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -33869,10 +33839,8 @@
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -33898,10 +33866,8 @@
       </c>
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -33919,10 +33885,8 @@
       <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1285">
@@ -33948,10 +33912,8 @@
       </c>
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -33977,10 +33939,8 @@
       </c>
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -34006,10 +33966,8 @@
       </c>
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -34035,10 +33993,8 @@
       </c>
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -34060,112 +34016,150 @@
       </c>
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
+        </is>
+      </c>
       <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>0.019M</t>
+        </is>
+      </c>
       <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>-0.063M</t>
+        </is>
+      </c>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>2-Year FRN Auction</t>
+        </is>
+      </c>
       <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>0.105%</t>
+        </is>
+      </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>4.100%</t>
+        </is>
+      </c>
       <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1295" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr">
         <is>
           <t>3</t>
@@ -34173,59 +34167,67 @@
       </c>
     </row>
     <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1296" t="inlineStr"/>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits FinalMAR</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
+          <t>1.459M</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1297" t="inlineStr"/>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr"/>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>4.060%</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
+          <t>Thursday April 24 2025</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -34238,43 +34240,59 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>Durable Goods Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr"/>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Chicago Fed National Activity IndexMAR</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
       <c r="G1300" t="inlineStr">
         <is>
           <t>2</t>
@@ -34284,82 +34302,86 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>Durable Goods Orders Ex Transp MoMMAR</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>Initial Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr"/>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>215K</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>218.0K</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr"/>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>1885K</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr"/>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>1888.0K</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
@@ -34371,22 +34393,26 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1304" t="inlineStr">
         <is>
           <t>3</t>
@@ -34396,22 +34422,26 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr"/>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>$21.67T</t>
+          <t>220.75K</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>222.0K</t>
+        </is>
+      </c>
       <c r="G1305" t="inlineStr">
         <is>
           <t>3</t>
@@ -34421,106 +34451,142 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>2.4M</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
+          <t>4.26M</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>4.14M</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>4.18M</t>
+        </is>
+      </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>Existing Home Sales MoMMAR</t>
+        </is>
+      </c>
       <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr"/>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>16Bcf</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Kansas Fed Composite IndexAPR</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr"/>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="G1310" t="inlineStr">
         <is>
           <t>3</t>
@@ -34530,22 +34596,26 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr"/>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1311" t="inlineStr">
         <is>
           <t>3</t>
@@ -34555,18 +34625,18 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>841.9</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr"/>
@@ -34580,18 +34650,18 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>164.2</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr"/>
@@ -34605,126 +34675,114 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Fed Beth Speech</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>6.03%</t>
+        </is>
+      </c>
       <c r="E1314" t="inlineStr"/>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
       <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="D1317" t="inlineStr"/>
       <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1318" t="inlineStr"/>
       <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr">
         <is>
           <t>2</t>
@@ -34734,35 +34792,15 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>New Home SalesMAR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
       <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>0.680M</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
@@ -34772,19 +34810,23 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1320" t="inlineStr"/>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -34796,72 +34838,96 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>0.515M</t>
-        </is>
-      </c>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr"/>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1323" t="inlineStr">
         <is>
           <t>3</t>
@@ -34871,22 +34937,30 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr"/>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="G1324" t="inlineStr">
         <is>
           <t>3</t>
@@ -34896,18 +34970,18 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr"/>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>0.03M</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -34921,18 +34995,18 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr"/>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>-1.851M</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -34946,1037 +35020,15 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
       <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
+      <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr"/>
       <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>-0.063M</t>
-        </is>
-      </c>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr"/>
-      <c r="B1334" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr"/>
-      <c r="B1335" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1337" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1337" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1337" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr">
-        <is>
-          <t>218.0K</t>
-        </is>
-      </c>
-      <c r="G1340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr">
-        <is>
-          <t>1885K</t>
-        </is>
-      </c>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr">
-        <is>
-          <t>1888.0K</t>
-        </is>
-      </c>
-      <c r="G1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr">
-        <is>
-          <t>220.75K</t>
-        </is>
-      </c>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1345" t="inlineStr">
-        <is>
-          <t>4.14M</t>
-        </is>
-      </c>
-      <c r="F1345" t="inlineStr">
-        <is>
-          <t>4.18M</t>
-        </is>
-      </c>
-      <c r="G1345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr">
-        <is>
-          <t>16Bcf</t>
-        </is>
-      </c>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr">
-        <is>
-          <t>6.03%</t>
-        </is>
-      </c>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="G1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1365"/>
+  <dimension ref="A1:G1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33386,10 +33386,8 @@
           <t>1.4M</t>
         </is>
       </c>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -33423,10 +33421,8 @@
           <t>1.42M</t>
         </is>
       </c>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -33456,10 +33452,8 @@
           <t>-4%</t>
         </is>
       </c>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1270">
@@ -33489,10 +33483,8 @@
           <t>-5.3%</t>
         </is>
       </c>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1271">
@@ -33526,10 +33518,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1272">
@@ -33563,10 +33553,8 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -33600,10 +33588,8 @@
           <t>1890.0K</t>
         </is>
       </c>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -33633,10 +33619,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -33662,10 +33646,8 @@
       </c>
       <c r="E1275" t="inlineStr"/>
       <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -33691,10 +33673,8 @@
       </c>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -33720,10 +33700,8 @@
       </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -33749,10 +33727,8 @@
       </c>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -33778,10 +33754,8 @@
       </c>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -33807,10 +33781,8 @@
       </c>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -33836,10 +33808,8 @@
       </c>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -33869,10 +33839,8 @@
         </is>
       </c>
       <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -33898,10 +33866,8 @@
       </c>
       <c r="E1283" t="inlineStr"/>
       <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -33919,10 +33885,8 @@
       <c r="D1284" t="inlineStr"/>
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1285">
@@ -33948,10 +33912,8 @@
       </c>
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -33977,10 +33939,8 @@
       </c>
       <c r="E1286" t="inlineStr"/>
       <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -34006,10 +33966,8 @@
       </c>
       <c r="E1287" t="inlineStr"/>
       <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -34035,10 +33993,8 @@
       </c>
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -34064,112 +34020,150 @@
       </c>
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
+        </is>
+      </c>
       <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>0.019M</t>
+        </is>
+      </c>
       <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>-0.063M</t>
+        </is>
+      </c>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Sunday April 20 2025</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>2-Year FRN Auction</t>
+        </is>
+      </c>
       <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>0.105%</t>
+        </is>
+      </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Monday April 21 2025</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>4.100%</t>
+        </is>
+      </c>
       <c r="E1294" t="inlineStr"/>
       <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMMAR</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1295" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
       <c r="G1295" t="inlineStr">
         <is>
           <t>3</t>
@@ -34177,59 +34171,67 @@
       </c>
     </row>
     <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1296" t="inlineStr"/>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Building Permits FinalMAR</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
+          <t>1.459M</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>1.482M</t>
+        </is>
+      </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1297" t="inlineStr"/>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Building Permits MoM FinalMAR</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr"/>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>4.060%</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Tuesday April 22 2025</t>
+          <t>Thursday April 24 2025</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -34242,43 +34244,59 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/19</t>
+          <t>Durable Goods Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr"/>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Chicago Fed National Activity IndexMAR</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
       <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
       <c r="G1300" t="inlineStr">
         <is>
           <t>2</t>
@@ -34288,82 +34306,86 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexAPR</t>
+          <t>Durable Goods Orders Ex Transp MoMMAR</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexAPR</t>
+          <t>Initial Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr"/>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>215K</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>218.0K</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexAPR</t>
+          <t>Continuing Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr"/>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>1885K</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr"/>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>1888.0K</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
@@ -34375,22 +34397,26 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Durable Goods Orders ex Defense MoMMAR</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>3.984%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1304" t="inlineStr">
         <is>
           <t>3</t>
@@ -34400,22 +34426,26 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Money SupplyMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/19</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr"/>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>$21.67T</t>
+          <t>220.75K</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>222.0K</t>
+        </is>
+      </c>
       <c r="G1305" t="inlineStr">
         <is>
           <t>3</t>
@@ -34425,106 +34455,142 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Non Defense Goods Orders Ex AirMAR</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/18</t>
+          <t>Existing Home SalesMAR</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>2.4M</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
+          <t>4.26M</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>4.14M</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>4.18M</t>
+        </is>
+      </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Wednesday April 23 2025</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>Existing Home Sales MoMMAR</t>
+        </is>
+      </c>
       <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>-1.9%</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/18</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr"/>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>16Bcf</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
       <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/18</t>
+          <t>Kansas Fed Composite IndexAPR</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr"/>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="G1310" t="inlineStr">
         <is>
           <t>3</t>
@@ -34534,22 +34600,26 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/18</t>
+          <t>Kansas Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr"/>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>267.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="G1311" t="inlineStr">
         <is>
           <t>3</t>
@@ -34559,18 +34629,18 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>841.9</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr"/>
@@ -34584,18 +34654,18 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/18</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>164.2</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr"/>
@@ -34609,126 +34679,118 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Fed Beth Speech</t>
+          <t>15-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>6.03%</t>
+        </is>
+      </c>
       <c r="E1314" t="inlineStr"/>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>30-Year Mortgage RateAPR/24</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
       <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashAPR</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>4.233%</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashAPR</t>
+          <t>Fed Balance SheetAPR/23</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr"/>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashAPR</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+      <c r="D1318" t="inlineStr"/>
       <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr">
         <is>
           <t>2</t>
@@ -34738,35 +34800,15 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr">
-        <is>
-          <t>New Home SalesMAR</t>
-        </is>
-      </c>
+          <t>Friday April 25 2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
       <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>0.676M</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>0.680M</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
@@ -34776,19 +34818,23 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>New Home Sales MoMMAR</t>
+          <t>Michigan Consumer Sentiment FinalAPR</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E1320" t="inlineStr"/>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -34800,72 +34846,96 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>0.515M</t>
-        </is>
-      </c>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/18</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>-1.958M</t>
-        </is>
-      </c>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
+          <t>52.6</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/18</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr"/>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>-2.044M</t>
-        </is>
-      </c>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>56.5</t>
+        </is>
+      </c>
       <c r="G1323" t="inlineStr">
         <is>
           <t>3</t>
@@ -34875,22 +34945,30 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/18</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr"/>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>-0.654M</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="G1324" t="inlineStr">
         <is>
           <t>3</t>
@@ -34900,18 +34978,18 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/18</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr"/>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>0.03M</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -34925,18 +35003,18 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/18</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr"/>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>-1.851M</t>
+          <t>585</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -34950,1041 +35028,15 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/18</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
       <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>0.466M</t>
-        </is>
-      </c>
+      <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr"/>
       <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>0.019M</t>
-        </is>
-      </c>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr">
-        <is>
-          <t>-0.063M</t>
-        </is>
-      </c>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr">
-        <is>
-          <t>0.105%</t>
-        </is>
-      </c>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr"/>
-      <c r="B1334" t="inlineStr">
-        <is>
-          <t>Building Permits FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="F1334" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr"/>
-      <c r="B1335" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F1335" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1335" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Thursday April 24 2025</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1337" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1337" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1337" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="G1338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr">
-        <is>
-          <t>215K</t>
-        </is>
-      </c>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr">
-        <is>
-          <t>218.0K</t>
-        </is>
-      </c>
-      <c r="G1340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr">
-        <is>
-          <t>1885K</t>
-        </is>
-      </c>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr">
-        <is>
-          <t>1888.0K</t>
-        </is>
-      </c>
-      <c r="G1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/19</t>
-        </is>
-      </c>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr">
-        <is>
-          <t>220.75K</t>
-        </is>
-      </c>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirMAR</t>
-        </is>
-      </c>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr">
-        <is>
-          <t>Existing Home SalesMAR</t>
-        </is>
-      </c>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr">
-        <is>
-          <t>4.26M</t>
-        </is>
-      </c>
-      <c r="E1345" t="inlineStr">
-        <is>
-          <t>4.14M</t>
-        </is>
-      </c>
-      <c r="F1345" t="inlineStr">
-        <is>
-          <t>4.18M</t>
-        </is>
-      </c>
-      <c r="G1345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/18</t>
-        </is>
-      </c>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr">
-        <is>
-          <t>16Bcf</t>
-        </is>
-      </c>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="G1349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr">
-        <is>
-          <t>6.03%</t>
-        </is>
-      </c>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/24</t>
-        </is>
-      </c>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr">
-        <is>
-          <t>4.233%</t>
-        </is>
-      </c>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/23</t>
-        </is>
-      </c>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1358" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="F1359" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="F1360" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1361" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="G1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1362" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="G1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
